--- a/contents/2aexcel/04/04_2.xlsx
+++ b/contents/2aexcel/04/04_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maru/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BEBA4B0-1736-5D42-A6A1-7C54FC537EC0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211326A4-67D3-2E46-8B89-CA6DCA26E3A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14760" yWindow="960" windowWidth="13780" windowHeight="16060" xr2:uid="{1F756284-CACE-B54C-A496-B0EC00565D14}"/>
+    <workbookView xWindow="15660" yWindow="1340" windowWidth="13780" windowHeight="16060" xr2:uid="{1F756284-CACE-B54C-A496-B0EC00565D14}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>A店とB店における各商品の売上数の結果（個）</t>
     <rPh sb="20" eb="21">
@@ -43,13 +43,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>A店</t>
-    <rPh sb="1" eb="2">
-      <t>テn</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>B店</t>
     <rPh sb="1" eb="2">
       <t>テn</t>
@@ -57,21 +50,46 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>計</t>
+    <t>カップラーメン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>店舗</t>
+    <rPh sb="0" eb="2">
+      <t>テn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>売り上げ数</t>
     <rPh sb="0" eb="1">
-      <t>ケイサn</t>
-    </rPh>
+      <t>ウリアゲスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A店</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>冷凍食品</t>
     <rPh sb="0" eb="4">
-      <t>レイトウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カップラーメン</t>
+      <t>REITO</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冷凍食品</t>
+    <rPh sb="0" eb="1">
+      <t>REITO</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -436,74 +454,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F3FD8C-FDAF-804A-9764-03B5F26CD550}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>327</v>
-      </c>
-      <c r="C3">
-        <v>223</v>
-      </c>
-      <c r="D3">
-        <v>550</v>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>412</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>412</v>
-      </c>
-      <c r="C4">
+      <c r="C6">
         <v>238</v>
-      </c>
-      <c r="D4">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>739</v>
-      </c>
-      <c r="C5">
-        <v>461</v>
-      </c>
-      <c r="D5">
-        <v>1200</v>
       </c>
     </row>
   </sheetData>
